--- a/numbers/sample.xlsx
+++ b/numbers/sample.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{C4B7BA5B-9F3C-3446-84EB-65C8A7E17A0E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{C1EEC1C0-0CF7-3140-9A39-296B9AE16620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,6 +21,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,9 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
-    <t>standard</t>
+    <t>3x3</t>
   </si>
 </sst>
 </file>
@@ -566,9 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED09257-DD7F-2C4D-A5FD-B0E8B159A54E}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -758,9 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{168F3050-FF87-604B-93A5-A816F7721476}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -934,9 +932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BFDAAC-1EDF-4340-865A-58D11DCF3107}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>

--- a/numbers/sample.xlsx
+++ b/numbers/sample.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{C1EEC1C0-0CF7-3140-9A39-296B9AE16620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{033EDD15-785B-9A4D-84DB-573F14BD91D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
   <si>
     <t>3x3</t>
   </si>
@@ -270,9 +270,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -310,7 +310,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -416,7 +416,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -558,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/numbers/sample.xlsx
+++ b/numbers/sample.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{033EDD15-785B-9A4D-84DB-573F14BD91D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{FFD2E217-3602-0647-B16A-657B09CB3AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
     <sheet name="Q3" sheetId="3" r:id="rId2"/>
     <sheet name="Q5" sheetId="2" r:id="rId3"/>
+    <sheet name="Q353" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
   <si>
     <t>3x3</t>
   </si>
@@ -932,7 +933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BFDAAC-1EDF-4340-865A-58D11DCF3107}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1092,4 +1095,176 @@
   <phoneticPr fontId="1" alignment="center"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C852451-2FE2-174B-8E0D-00DCDA7B1173}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="4.04296875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.82421875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="6"/>
+      <c r="C3" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8">
+        <v>9</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9">
+        <v>2</v>
+      </c>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="3">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="2">
+        <v>5</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" alignment="center"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/numbers/sample.xlsx
+++ b/numbers/sample.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{FFD2E217-3602-0647-B16A-657B09CB3AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{8D5E0872-02A3-C04D-B2DE-D97881E06A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,8 @@
     <sheet name="Q1" sheetId="1" r:id="rId1"/>
     <sheet name="Q3" sheetId="3" r:id="rId2"/>
     <sheet name="Q5" sheetId="2" r:id="rId3"/>
-    <sheet name="Q353" sheetId="4" r:id="rId4"/>
+    <sheet name="Q344" sheetId="5" r:id="rId4"/>
+    <sheet name="Q353" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
   <si>
     <t>3x3</t>
   </si>
@@ -1098,10 +1099,180 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180C196F-F782-B445-906C-79AE6E34BF4A}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="4.04296875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.82421875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="6">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4">
+        <v>7</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="8">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3">
+        <v>9</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="8">
+        <v>7</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10">
+        <v>8</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9">
+        <v>5</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" alignment="center"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C852451-2FE2-174B-8E0D-00DCDA7B1173}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
